--- a/excel/formulas.xlsx
+++ b/excel/formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnaylor\Desktop\Portable Procedures\repos\publicProjects\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776FB0B4-AF8B-4CC5-9961-B4CBF3B2148B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6287A783-4369-4BE9-A4ED-71659B203680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29E67950-BA9F-48E6-A89A-0FBE7B506AEB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>Input</t>
   </si>
@@ -401,33 +401,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEDE047-707D-4265-87B6-7E9141D4503F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43524</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="str">
         <f>YEAR(A2)&amp;TEXT(MONTH(A2), "00")&amp;TEXT(DAY(A2),"00")</f>
         <v>20190228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f>A3&amp;TEXT(B3, "00")</f>
+        <v>201901</v>
       </c>
     </row>
   </sheetData>

--- a/excel/formulas.xlsx
+++ b/excel/formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnaylor\Desktop\Portable Procedures\repos\publicProjects\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6287A783-4369-4BE9-A4ED-71659B203680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE40D723-A205-4403-BF81-BECCA406881F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29E67950-BA9F-48E6-A89A-0FBE7B506AEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{29E67950-BA9F-48E6-A89A-0FBE7B506AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEDE047-707D-4265-87B6-7E9141D4503F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -439,11 +439,20 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="str">
         <f>A3&amp;TEXT(B3, "00")</f>
-        <v>201901</v>
+        <v>201902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43524</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>YEAR(A4)&amp;TEXT(MONTH(A4), "00")</f>
+        <v>201902</v>
       </c>
     </row>
   </sheetData>

--- a/excel/formulas.xlsx
+++ b/excel/formulas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnaylor\Desktop\Portable Procedures\repos\publicProjects\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnaylor\Desktop\portableProcedures\repos\publicProjects\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE40D723-A205-4403-BF81-BECCA406881F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A53103-18CF-427C-87E6-F0702E9C68F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{29E67950-BA9F-48E6-A89A-0FBE7B506AEB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29E67950-BA9F-48E6-A89A-0FBE7B506AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Input</t>
+    <t>Output</t>
   </si>
   <si>
-    <t>Output</t>
+    <t>Input - 1</t>
+  </si>
+  <si>
+    <t>Input - 2</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,13 +418,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/excel/formulas.xlsx
+++ b/excel/formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnaylor\Desktop\portableProcedures\repos\publicProjects\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A53103-18CF-427C-87E6-F0702E9C68F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA8C1B-CC28-46D9-9FEA-4CD6C56F4311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29E67950-BA9F-48E6-A89A-0FBE7B506AEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29E67950-BA9F-48E6-A89A-0FBE7B506AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -404,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEDE047-707D-4265-87B6-7E9141D4503F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,6 +456,24 @@
         <v>201902</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43524</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>TEXT(MONTH(A5), "00")&amp;TEXT(DAY(A5),"00")&amp;YEAR(A5)</f>
+        <v>02282019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43524</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>TEXT(MONTH(A6), "00")&amp;TEXT(DAY(A6),"00")&amp;RIGHT(YEAR(A6),2)</f>
+        <v>022819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
